--- a/asiya_top3_making_date/csv/use_model_param_memo.xlsx
+++ b/asiya_top3_making_date/csv/use_model_param_memo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nabe0\Desktop\nabepy\boatracer_BOT_making\boatracer_BOT_making\asiya_top3_making_date\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CD1DE2-3234-4C31-8ADD-C1FB36295162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591FF83B-E563-467F-A5E9-9BE834E974A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="30" windowWidth="14325" windowHeight="15570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="クラスタリング削除後" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>target_com</t>
   </si>
@@ -385,325 +386,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="D11:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>130</v>
+      </c>
+      <c r="D2" s="1">
+        <v>18160</v>
+      </c>
+      <c r="E2" s="1">
+        <v>13400</v>
+      </c>
+      <c r="F2" s="1">
+        <v>182</v>
+      </c>
+      <c r="G2" s="1">
+        <v>134</v>
+      </c>
+      <c r="H2" s="1">
+        <v>135.522388059701</v>
+      </c>
+      <c r="I2" s="1">
+        <v>24.626865671641699</v>
+      </c>
+      <c r="J2" s="1">
+        <v>33</v>
+      </c>
+      <c r="K2" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>135</v>
+      </c>
+      <c r="D3" s="1">
+        <v>22660</v>
+      </c>
+      <c r="E3" s="1">
+        <v>18600</v>
+      </c>
+      <c r="F3" s="1">
+        <v>86</v>
+      </c>
+      <c r="G3" s="1">
+        <v>186</v>
+      </c>
+      <c r="H3" s="1">
+        <v>121.827956989247</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9.67741935483871</v>
+      </c>
+      <c r="J3" s="1">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>134</v>
+      </c>
+      <c r="D4" s="1">
+        <v>47660</v>
+      </c>
+      <c r="E4" s="1">
+        <v>24200</v>
+      </c>
+      <c r="F4" s="1">
+        <v>107</v>
+      </c>
+      <c r="G4" s="1">
+        <v>242</v>
+      </c>
+      <c r="H4" s="1">
+        <v>196.94214876033001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7.8512396694214797</v>
+      </c>
+      <c r="J4" s="1">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>136</v>
+      </c>
+      <c r="D5" s="1">
+        <v>27970</v>
+      </c>
+      <c r="E5" s="1">
+        <v>21600</v>
+      </c>
+      <c r="F5" s="1">
+        <v>108</v>
+      </c>
+      <c r="G5" s="1">
+        <v>216</v>
+      </c>
+      <c r="H5" s="1">
+        <v>129.49074074073999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8.7962962962962905</v>
+      </c>
+      <c r="J5" s="1">
+        <v>19</v>
+      </c>
+      <c r="K5" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>127</v>
+      </c>
+      <c r="D6" s="1">
+        <v>27860</v>
+      </c>
+      <c r="E6" s="1">
+        <v>23800</v>
+      </c>
+      <c r="F6" s="1">
+        <v>91</v>
+      </c>
+      <c r="G6" s="1">
+        <v>238</v>
+      </c>
+      <c r="H6" s="1">
+        <v>117.058823529411</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.4033613445378101</v>
+      </c>
+      <c r="J6" s="1">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>133</v>
+      </c>
+      <c r="D8" s="1">
+        <v>12570</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8300</v>
+      </c>
+      <c r="F8" s="1">
+        <v>184</v>
+      </c>
+      <c r="G8" s="1">
+        <v>83</v>
+      </c>
+      <c r="H8" s="1">
+        <v>151.44578313253001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>20.481927710843301</v>
+      </c>
+      <c r="J8" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>122</v>
+      </c>
+      <c r="D9" s="1">
+        <v>17950</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12400</v>
+      </c>
+      <c r="F9" s="1">
+        <v>238</v>
+      </c>
+      <c r="G9" s="1">
+        <v>124</v>
+      </c>
+      <c r="H9" s="1">
+        <v>144.758064516129</v>
+      </c>
+      <c r="I9" s="1">
+        <v>16.935483870967701</v>
+      </c>
+      <c r="J9" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>133</v>
+      </c>
+      <c r="D10" s="1">
+        <v>33860</v>
+      </c>
+      <c r="E10" s="1">
+        <v>17800</v>
+      </c>
+      <c r="F10" s="1">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1">
+        <v>178</v>
+      </c>
+      <c r="H10" s="1">
+        <v>190.22471910112299</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5.61797752808988</v>
+      </c>
+      <c r="J10" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="B2" s="1">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>130</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18160</v>
-      </c>
-      <c r="F2" s="1">
-        <v>13400</v>
-      </c>
-      <c r="G2" s="1">
-        <v>182</v>
-      </c>
-      <c r="H2" s="1">
-        <v>134</v>
-      </c>
-      <c r="I2" s="1">
-        <v>135.522388059701</v>
-      </c>
-      <c r="J2" s="1">
-        <v>24.626865671641699</v>
-      </c>
-      <c r="K2" s="1">
-        <v>33</v>
-      </c>
-      <c r="L2" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="1">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>135</v>
-      </c>
-      <c r="E3" s="1">
-        <v>22660</v>
-      </c>
-      <c r="F3" s="1">
-        <v>18600</v>
-      </c>
-      <c r="G3" s="1">
-        <v>86</v>
-      </c>
-      <c r="H3" s="1">
-        <v>186</v>
-      </c>
-      <c r="I3" s="1">
-        <v>121.827956989247</v>
-      </c>
-      <c r="J3" s="1">
-        <v>9.67741935483871</v>
-      </c>
-      <c r="K3" s="1">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="B4" s="1">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>134</v>
-      </c>
-      <c r="E4" s="1">
-        <v>47660</v>
-      </c>
-      <c r="F4" s="1">
-        <v>24200</v>
-      </c>
-      <c r="G4" s="1">
-        <v>107</v>
-      </c>
-      <c r="H4" s="1">
-        <v>242</v>
-      </c>
-      <c r="I4" s="1">
-        <v>196.94214876033001</v>
-      </c>
-      <c r="J4" s="1">
-        <v>7.8512396694214797</v>
-      </c>
-      <c r="K4" s="1">
-        <v>19</v>
-      </c>
-      <c r="L4" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="B5" s="1">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>136</v>
-      </c>
-      <c r="E5" s="1">
-        <v>27970</v>
-      </c>
-      <c r="F5" s="1">
-        <v>21600</v>
-      </c>
-      <c r="G5" s="1">
-        <v>108</v>
-      </c>
-      <c r="H5" s="1">
-        <v>216</v>
-      </c>
-      <c r="I5" s="1">
-        <v>129.49074074073999</v>
-      </c>
-      <c r="J5" s="1">
-        <v>8.7962962962962905</v>
-      </c>
-      <c r="K5" s="1">
-        <v>19</v>
-      </c>
-      <c r="L5" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" s="1">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>127</v>
-      </c>
-      <c r="E6" s="1">
-        <v>27860</v>
-      </c>
-      <c r="F6" s="1">
-        <v>23800</v>
-      </c>
-      <c r="G6" s="1">
-        <v>91</v>
-      </c>
-      <c r="H6" s="1">
-        <v>238</v>
-      </c>
-      <c r="I6" s="1">
-        <v>117.058823529411</v>
-      </c>
-      <c r="J6" s="1">
-        <v>8.4033613445378101</v>
-      </c>
-      <c r="K6" s="1">
-        <v>20</v>
-      </c>
-      <c r="L6" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>133</v>
-      </c>
-      <c r="E7" s="1">
-        <v>12570</v>
-      </c>
-      <c r="F7" s="1">
-        <v>8300</v>
-      </c>
-      <c r="G7" s="1">
-        <v>184</v>
-      </c>
-      <c r="H7" s="1">
-        <v>83</v>
-      </c>
-      <c r="I7" s="1">
-        <v>151.44578313253001</v>
-      </c>
-      <c r="J7" s="1">
-        <v>20.481927710843301</v>
-      </c>
-      <c r="K7" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>122</v>
-      </c>
-      <c r="E8" s="1">
-        <v>17950</v>
-      </c>
-      <c r="F8" s="1">
-        <v>12400</v>
-      </c>
-      <c r="G8" s="1">
-        <v>238</v>
-      </c>
-      <c r="H8" s="1">
-        <v>124</v>
-      </c>
-      <c r="I8" s="1">
-        <v>144.758064516129</v>
-      </c>
-      <c r="J8" s="1">
-        <v>16.935483870967701</v>
-      </c>
-      <c r="K8" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="1">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>133</v>
-      </c>
-      <c r="E10" s="1">
-        <v>33860</v>
-      </c>
-      <c r="F10" s="1">
-        <v>17800</v>
-      </c>
-      <c r="G10" s="1">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1">
-        <v>178</v>
-      </c>
-      <c r="I10" s="1">
-        <v>190.22471910112299</v>
-      </c>
-      <c r="J10" s="1">
-        <v>5.61797752808988</v>
-      </c>
-      <c r="K10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:11">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:11">
       <c r="B15" s="1"/>
     </row>
   </sheetData>
@@ -711,4 +711,291 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF8B2A0-6846-4E64-8A4D-D30F579C2E0F}">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>135</v>
+      </c>
+      <c r="D2" s="1">
+        <v>25980</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19500</v>
+      </c>
+      <c r="F2" s="1">
+        <v>182</v>
+      </c>
+      <c r="G2" s="1">
+        <v>195</v>
+      </c>
+      <c r="H2" s="1">
+        <v>133.230769230769</v>
+      </c>
+      <c r="I2" s="1">
+        <v>23.076923076922998</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45</v>
+      </c>
+      <c r="K2" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>115</v>
+      </c>
+      <c r="D3" s="1">
+        <v>71220</v>
+      </c>
+      <c r="E3" s="1">
+        <v>52600</v>
+      </c>
+      <c r="F3" s="1">
+        <v>86</v>
+      </c>
+      <c r="G3" s="1">
+        <v>526</v>
+      </c>
+      <c r="H3" s="1">
+        <v>135.399239543726</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7.0342205323193898</v>
+      </c>
+      <c r="J3" s="1">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>131</v>
+      </c>
+      <c r="D4" s="1">
+        <v>51290</v>
+      </c>
+      <c r="E4" s="1">
+        <v>33300</v>
+      </c>
+      <c r="F4" s="1">
+        <v>107</v>
+      </c>
+      <c r="G4" s="1">
+        <v>333</v>
+      </c>
+      <c r="H4" s="1">
+        <v>154.02402402402399</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6.6066066066065998</v>
+      </c>
+      <c r="J4" s="1">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>132</v>
+      </c>
+      <c r="D5" s="1">
+        <v>31230</v>
+      </c>
+      <c r="E5" s="1">
+        <v>25700</v>
+      </c>
+      <c r="F5" s="1">
+        <v>91</v>
+      </c>
+      <c r="G5" s="1">
+        <v>257</v>
+      </c>
+      <c r="H5" s="1">
+        <v>121.51750972762601</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8.5603112840466906</v>
+      </c>
+      <c r="J5" s="1">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>140</v>
+      </c>
+      <c r="D7" s="1">
+        <v>13930</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8600</v>
+      </c>
+      <c r="F7" s="1">
+        <v>184</v>
+      </c>
+      <c r="G7" s="1">
+        <v>86</v>
+      </c>
+      <c r="H7" s="1">
+        <v>161.97674418604601</v>
+      </c>
+      <c r="I7" s="1">
+        <v>22.0930232558139</v>
+      </c>
+      <c r="J7" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>130</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15360</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10600</v>
+      </c>
+      <c r="F8" s="1">
+        <v>238</v>
+      </c>
+      <c r="G8" s="1">
+        <v>106</v>
+      </c>
+      <c r="H8" s="1">
+        <v>144.905660377358</v>
+      </c>
+      <c r="I8" s="1">
+        <v>16.981132075471699</v>
+      </c>
+      <c r="J8" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>130</v>
+      </c>
+      <c r="D9" s="1">
+        <v>32460</v>
+      </c>
+      <c r="E9" s="1">
+        <v>25500</v>
+      </c>
+      <c r="F9" s="1">
+        <v>108</v>
+      </c>
+      <c r="G9" s="1">
+        <v>255</v>
+      </c>
+      <c r="H9" s="1">
+        <v>127.294117647058</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7.8431372549019596</v>
+      </c>
+      <c r="J9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>